--- a/public/input/templates-ipo.xlsx
+++ b/public/input/templates-ipo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Dropbox\papers\lisa-coes\content\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5358981E-C8A5-4336-AF1E-35DD8CBF25D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFE4C4E-1146-4BD2-A043-67FFE7760E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{3472A8E5-81FF-413A-86B5-92892014ECE5}"/>
   </bookViews>
@@ -102,10 +102,10 @@
     <t>IPO Genérico</t>
   </si>
   <si>
-    <t>IPO Rmarkdown</t>
-  </si>
-  <si>
     <t>IPO R+Git</t>
+  </si>
+  <si>
+    <t>IPO R</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>17</v>
@@ -646,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>16</v>

--- a/public/input/templates-ipo.xlsx
+++ b/public/input/templates-ipo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Dropbox\papers\lisa-coes\content\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFE4C4E-1146-4BD2-A043-67FFE7760E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D8BB6F-ED61-4609-A267-C9FF7E0B2A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{3472A8E5-81FF-413A-86B5-92892014ECE5}"/>
   </bookViews>

--- a/public/input/templates-ipo.xlsx
+++ b/public/input/templates-ipo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Dropbox\papers\lisa-coes\content\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D8BB6F-ED61-4609-A267-C9FF7E0B2A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0FF7EE-03DF-4F0E-B31D-D370C89F562E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{3472A8E5-81FF-413A-86B5-92892014ECE5}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>descripcion</t>
   </si>
   <si>
-    <t>IPO-gen</t>
-  </si>
-  <si>
     <t>IPO-R</t>
   </si>
   <si>
@@ -84,28 +81,31 @@
     <t>Enlace</t>
   </si>
   <si>
-    <t>https://github.com/jciturras/ipo-rgit/archive/refs/heads/main.zip</t>
-  </si>
-  <si>
-    <t>https://lisa-coes.github.io/ipo/IPO_template/IPO-Project_template.tar.gz</t>
-  </si>
-  <si>
-    <t>https://github.com/jciturras/ipo-rgit/raw/main/IPO-generico.rar</t>
-  </si>
-  <si>
     <t>Mantiene la misma estructura básica, esta versión es una actualización para aprovechar todas las herramientas de reproducibilidad, colaboración y publicación ofrecidas por los entornos de trabajo Rmarkdown / Github.</t>
   </si>
   <si>
     <t>nombre</t>
   </si>
   <si>
-    <t>IPO Genérico</t>
-  </si>
-  <si>
     <t>IPO R+Git</t>
   </si>
   <si>
     <t>IPO R</t>
+  </si>
+  <si>
+    <t>IPO base</t>
+  </si>
+  <si>
+    <t>IPO-base</t>
+  </si>
+  <si>
+    <t>https://github.com/lisa-coes/ipo-rgit/generate</t>
+  </si>
+  <si>
+    <t>https://github.com/lisa-coes/ipo-rgit/raw/main/templates/IPO-base.rar</t>
+  </si>
+  <si>
+    <t>https://github.com/lisa-coes/ipo-rgit/raw/main/templates/IPO-R.rar</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,7 @@
     <col min="3" max="3" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -568,88 +568,88 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -678,11 +678,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{FEE02934-A8E6-4A2F-9C99-447F3374198F}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{81846DA0-E872-4641-B562-3A7DC1EDE838}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{8634785E-B06C-443F-BE76-1D0846A64DE0}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{50A1672C-A8EB-4FEF-A278-52D54F14D267}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>